--- a/biology/Médecine/Colonne_vertébrale/Colonne_vertébrale.xlsx
+++ b/biology/Médecine/Colonne_vertébrale/Colonne_vertébrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colonne_vert%C3%A9brale</t>
+          <t>Colonne_vertébrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La colonne vertébrale (aussi échine ou rachis ou colonne rachidienne) est un empilement d'os articulés appelés vertèbres. Elle est le support du dos des vertébrés, dont elle constitue une synapomorphie. C'est sur la colonne vertébrale que sont fixées, quand elles existent, les côtes et les ceintures scapulaire et pelvienne. Elle a une triple fonction : statique (maintien de la position érigée contre la pesanteur grâce aux corps vertébraux qui supportent les pressions exercées par le poids du corps et les transmettent aux membres), dynamique (permettant la gamme étendue des mouvements de la tête et du tronc déterminés par l'orientation des surfaces de glissement des processus articulaires), et protectrice (protection de la moelle spinale siégeant à l'intérieur du canal rachidien formé par les foramens des vertèbres).
 Chez l'être humain, elle supporte la tête et transmet le poids du corps jusqu'au bassin qui le transmet aux articulations des hanches. Elle est composée, comme chez d'autres mammifères, de vingt-quatre vertèbres : sept vertèbres cervicales, douze thoraciques et cinq lombaires. Il faut y rajouter cinq vertèbres qui ont fusionné pour donner le sacrum (trois à sept chez les autres tétrapodes) et trois à cinq (selon l'individu) fausses vertèbres fusionnées en un coccyx caudal, structure vestigiale que l'on trouve aussi chez les singes et certains autres animaux, dont les chevaux. La plupart des autres vertébrés ont un nombre variable de vertèbres caudales qui constituent le squelette axial de la queue. La colonne vertébrale est courbée dans le plan sagittal médian, selon un plan frontal. Elle présente deux courbures primaires (concaves en avant), aussi appelées cyphoses, au niveau des rachis thoracique et sacré, ainsi que deux courbes secondaires (concaves en arrière) appelées lordoses au niveau des rachis cervical et lombaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colonne_vert%C3%A9brale</t>
+          <t>Colonne_vertébrale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rachis cervical
-Il se compose de sept vertèbres cervicales, dénommées par la lettre C : de C1 à C7. Les deux premières vertèbres cervicales sont très particulières et avec l'os occipital, l'atlas et l'axis forment le craniocervicum, de très grande mobilité.
-Rachis cervical supérieur
-Le rachis cervical supérieur ou « craniocervicum » comporte :
+          <t>Rachis cervical</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se compose de sept vertèbres cervicales, dénommées par la lettre C : de C1 à C7. Les deux premières vertèbres cervicales sont très particulières et avec l'os occipital, l'atlas et l'axis forment le craniocervicum, de très grande mobilité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive de la colonne vertébrale humaine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rachis cervical</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Rachis cervical supérieur</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le rachis cervical supérieur ou « craniocervicum » comporte :
 Les articulations reliant le crâne au tronc : l'articulation atlanto-occipitale et les articulations atlanto-axoïdiennes latérale et médiane.
 L'atlas :
 première vertèbre cervicale (C1), et par conséquent, première vertèbre du rachis ;
@@ -548,9 +604,47 @@
 Développement embryologique et postnatal du craniocervicum :
 vascularisation de la dent de l'axis.
 Pas de disque intervertébral entre occiput et C1 et entre C1 et C2.
-Anatomie vasculaire particulière.
-Rachis cervical inférieur
-Les vertèbres C3-C4-C5-C6-C7 sont dans la continuité de la transition opérée par l'axis.
+Anatomie vasculaire particulière.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive de la colonne vertébrale humaine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rachis cervical</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Rachis cervical inférieur</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vertèbres C3-C4-C5-C6-C7 sont dans la continuité de la transition opérée par l'axis.
 Elles sont composées :
 d'un corps articulaire sur sa face supérieure et inférieure avec les vertèbres sous et sus-jacentes. Il présente à ses bords supéro-latéraux deux uncus stabilisant l'articulation avec la vertèbre sus-jacente ;
 de deux processus transverses bituberculés (un tubercule antérieur et un postérieur), perforés par le foramen transversaire qui laisse passer l'artère vertébrale ;
@@ -563,20 +657,124 @@
 Le tubercule antérieur de son processus transverse est plus volumineux que ceux des autres vertèbres cervicales. Il est appelé tubercule carotidien.
 Vertèbre C7
 C7 est une vertèbre de transition entre le rachis cervical et le rachis thoracique.
-Son processus épineux est unituberculé, très long et très incliné en arrière et en bas. Il représente la limite postéro-inférieure du cou. Ce tubercule peut être vu en fléchissant la tête en avant, et il est aisément palpé sous la peau : en descendant le long de la nuque, c'est la première grosse saillie sous la peau. Pour cette raison, les anciens anatomistes désignaient cet os sous le nom de vertèbre proéminente[1].
+Son processus épineux est unituberculé, très long et très incliné en arrière et en bas. Il représente la limite postéro-inférieure du cou. Ce tubercule peut être vu en fléchissant la tête en avant, et il est aisément palpé sous la peau : en descendant le long de la nuque, c'est la première grosse saillie sous la peau. Pour cette raison, les anciens anatomistes désignaient cet os sous le nom de vertèbre proéminente.
 C'est à cette hauteur que se forme la bosse de bison, qui est une forme de lipodystrophie.
-Rachis thoracique
-Le rachis thoracique (ou dorsal) est composé de douze vertèbres thoraciques ou dorsales, dénommées par les lettres T ou D : de T1 à T12, ou de D1 à D12.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive de la colonne vertébrale humaine</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rachis thoracique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le rachis thoracique (ou dorsal) est composé de douze vertèbres thoraciques ou dorsales, dénommées par les lettres T ou D : de T1 à T12, ou de D1 à D12.
 Il fait suite au rachis cervical et précède le rachis lombaire.
 Le rachis dorsal forme une courbure postérieure physiologique convexe appelée :
 cyphose dorsale en cas d'excès ou
-lordose dorsale ou thoracique en cas d'inversion, voire « dos plat ».
-Rachis lombaire
-Le rachis lombaire se compose de cinq vertèbres lombaires, dénommées par la lettre L : de L1 à L5.
+lordose dorsale ou thoracique en cas d'inversion, voire « dos plat ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive de la colonne vertébrale humaine</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rachis lombaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rachis lombaire se compose de cinq vertèbres lombaires, dénommées par la lettre L : de L1 à L5.
 Il fait suite au rachis dorsal et précède le rachis sacré.
-Le rachis lombaire forme une courbure antérieure, la lordose lombaire (appelée communément creux lombaire ou creux des reins). Cette concavité en arrière, associée à une région lombaire courte, est une adaptation du rachis au mode de locomotion bipède. Elle se développe vers douze mois quand le bébé commence à marcher[3].
-Sacrum
-Le sacrum ou os sacrum est issue de la fusion des cinq vertèbres sacrées et poursuit la colonne vertébrale vers le bas à la suite du rachis lombaire.
+Le rachis lombaire forme une courbure antérieure, la lordose lombaire (appelée communément creux lombaire ou creux des reins). Cette concavité en arrière, associée à une région lombaire courte, est une adaptation du rachis au mode de locomotion bipède. Elle se développe vers douze mois quand le bébé commence à marcher.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive de la colonne vertébrale humaine</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sacrum</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sacrum ou os sacrum est issue de la fusion des cinq vertèbres sacrées et poursuit la colonne vertébrale vers le bas à la suite du rachis lombaire.
 Il se compose de cinq vertèbres sacrées, dénommées par la lettre S : de S1 à S5.
 Il fait suite au rachis lombaire et précède le coccyx.
 Il est incliné d'environ 45 degrés en arrière.
@@ -587,13 +785,85 @@
 Sur les bords du sacrum, dans la partie supérieure, on retrouve une surface articulaire avec l'os iliaque (os coxal), c'est la face articulaire auriculaire (car elle a une forme d'oreille). Elle est tournée vers l'arrière et est en rapport avec son homologue de l'os iliaque pour former l'articulation sacro-iliaque (articulation synoviale, renforcée par des ligaments sacro-iliaques antérieur, postérieur et interosseux). Cette articulation ne permet que très peu de mouvements et transmet le poids du haut du corps aux articulations de la hanche quand la personne se tient debout.
 Sur les faces antérieure et postérieure, quatre paires de foramens sacraux laissent passer les rameaux ventraux et dorsaux des nerfs spinaux.
 À la partie distale (inférieure) du sacrum, on retrouve l'articulation sacro-coccygienne, qui l'articule avec le coccyx. C'est une articulation fibreuse ne permettant quasiment aucun mouvement.
-Coccyx
-Le coccyx ou os coccyx fait suite au sacrum et constitue l'extrémité inférieure de la colonne vertébrale, déjeté en avant. Il peut être le siège de douleurs lors d'un choc sur le postérieur ou même de fracture-luxation. Il est composé de :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive de la colonne vertébrale humaine</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Coccyx</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le coccyx ou os coccyx fait suite au sacrum et constitue l'extrémité inférieure de la colonne vertébrale, déjeté en avant. Il peut être le siège de douleurs lors d'un choc sur le postérieur ou même de fracture-luxation. Il est composé de :
 vestiges osseux : queue des mammifères.
-quatre ou cinq vertèbres coccygiennes soudées entre elles.
-Articulations intervertébrales
-Trois articulations
-Chaque vertèbre s'articule avec la vertèbre sus et sous-jacente (sauf l'atlas qui s'articule avec les condyles occipitaux).
+quatre ou cinq vertèbres coccygiennes soudées entre elles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive de la colonne vertébrale humaine</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Articulations intervertébrales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Trois articulations</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Chaque vertèbre s'articule avec la vertèbre sus et sous-jacente (sauf l'atlas qui s'articule avec les condyles occipitaux).
 Les vertèbres s'unissent par trois articulations :
 le disque intervertébral unissant les plateaux de deux vertèbres ;
 les deux articulations interapophysaires postérieures, où les apophyses articulaires supérieures d'une vertèbre s'articulent avec les apophyses articulaires inférieures de la vertèbre susjacente.
@@ -603,9 +873,47 @@
 les ligaments jaunes ;
 les ligaments interapophysaire ;
 les muscles rachidiens antagonistes des mouvements ;
-les capsules des articulations apophysaires postérieures.
-Mobilité
-Les mouvements du rachis sont possibles grâce à l'existence d'un système articulaire complexe, le segment articulaire rachidien, unité fonctionnelle constituée par :
+les capsules des articulations apophysaires postérieures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive de la colonne vertébrale humaine</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Articulations intervertébrales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Mobilité</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les mouvements du rachis sont possibles grâce à l'existence d'un système articulaire complexe, le segment articulaire rachidien, unité fonctionnelle constituée par :
 le complexe disco-corporéal ou disco-somatique ;
 les articulations interapophysaires postérieures ;
 les ligaments intervertébraux et les muscles vertébraux.
@@ -624,11 +932,84 @@
 35° lors d'une extension (mais pouvant aller jusqu'à 145° chez des personnes relativement souples) ;
 75° lors de l'inclinaison latérale totale ;
 90° de chaque côté lors d'un mouvement de rotation.
-[réf. nécessaire]
-Rapports anatomiques
-La colonne vertébrale n'est pas isolée dans l'organisme, elle en est même le pilier et présente à ce titre de nombreux rapports avec les structures environnantes.
-Antérieurs
-Vaisseaux sanguins
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive de la colonne vertébrale humaine</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Rapports anatomiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La colonne vertébrale n'est pas isolée dans l'organisme, elle en est même le pilier et présente à ce titre de nombreux rapports avec les structures environnantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive de la colonne vertébrale humaine</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Rapports anatomiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Antérieurs</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vaisseaux sanguins
 Outre la vascularisation proprement dite du rachis, il y a le passage de vaisseaux dans ou à proximité directe de la colonne.
 L'artère vertébrale
 Elle est une branche de l'artère subclavière (sous-clavière), et monte dans le canal formé par la superposition des foramens transversaires (canal transversaire) au niveau du rachis cervical. Elle s'engage en général dans ce canal au niveau de C6, mais peut y entrer en C7 ou beaucoup plus haut (parfois, elle traverse uniquement trois ou quatre vertèbres). Au niveau de l'atlas, elle se courbe à angle droit et pénètre dans le cerveau par le foramen magnum. Là, elle rejoint l'autre artère vertébrale, formant le tronc basilaire et participe au cercle artériel du cerveau (le polygone de Willis).
@@ -638,8 +1019,47 @@
 Plexus nerveux sympathique (érection)
 L'axe aéro-digestif
 C'est l'ensemble formé par l'œsophage et le larynx puis la trachée. Il débute en regard de C4 et se continue jusqu'à T4 (où la trachée se divise en deux bronches). Il est médian, c'est-à-dire qu'il chemine juste devant les corps vertébraux.
-Postérieurs
-Les muscles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive de la colonne vertébrale humaine</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Rapports anatomiques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Postérieurs</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Les muscles
 Le rachis est une zone importante d'insertions musculaires. En effet, il sert d'ancrage aux muscles de la posture et, au niveau du cou, il reçoit une bonne partie des muscles céphalogyres, qui meuvent la tête.
 Principaux muscles ayant des insertions sur la colonne vertébrale :
 Colonne vertébrale cervicale
@@ -665,31 +1085,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Colonne_vert%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez un embryon au stade initial, on verra au niveau dorsal que l'ébauche du système neural est ouverte et est faite de la gouttière neurale à l'origine du système nerveux.
 En avant de la gouttière neurale va exister la chorde qui régressera partiellement. De part et d'autre, il y a des amas cellulaires nommés somites à l'origine de deux types de structures :
@@ -701,31 +1123,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Colonne_vert%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Biomécanique de l'instrumentation rachidienne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>La pathologie de la colonne vertébrale a un retentissement double sur :
 la statique : déformations ;
@@ -734,83 +1158,226 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Colonne_vert%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Aspects médicaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Traumatismes
-Traumatismes vrais (accidents) :
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Traumatismes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Traumatismes vrais (accidents) :
 traumatisme rachidien cervical :
 cervical supérieur,
 cervical bas ;
 thoraco-lombaire.
-En cas de maladie métabolique : fractures dues à l'ostéoporose ou anomalies de l'ostéomalacie
-Pathologie discale
-Hernie discale
-Affections dégénératives : l'arthrose et ses dérivés
-Tumeurs et infections
-Tumeurs primitives ou secondaires (Cancer secondaire des os)
+En cas de maladie métabolique : fractures dues à l'ostéoporose ou anomalies de l'ostéomalacie</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Aspects médicaux</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pathologie discale</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hernie discale
+Affections dégénératives : l'arthrose et ses dérivés</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Aspects médicaux</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tumeurs et infections</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tumeurs primitives ou secondaires (Cancer secondaire des os)
 Infections de l'espace épidural (sans atteinte osseuse !), des corps vertébraux (spondylites, rares), des disques (discites) ou des deux (spondylodiscites, fréquentes)
-Au niveau du crâne, on trouve une liaison nommé cordome, tumeur du résidu de corde (voir la partie « embryologie du rachis »). Elle est bénigne et extrêmement récidivante.
-Rhumatismes
-Maladies inflammatoires (rhumatismes inflammatoires), essentiellement :
+Au niveau du crâne, on trouve une liaison nommé cordome, tumeur du résidu de corde (voir la partie « embryologie du rachis »). Elle est bénigne et extrêmement récidivante.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Aspects médicaux</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Rhumatismes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Maladies inflammatoires (rhumatismes inflammatoires), essentiellement :
 spondylarthrite ankylosante ou ;
-polyarthrite rhumatoïde
-Déviations rachidiennes
-Malformations congénitales, comme l'absence d'ossification d'un noyau somitique : il manque au corps vertébral concerné un quart de sa structure, ce qui entraîne une déviation du rachis. Parfois, il manque une hémivertèbre.
+polyarthrite rhumatoïde</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Aspects médicaux</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Déviations rachidiennes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Malformations congénitales, comme l'absence d'ossification d'un noyau somitique : il manque au corps vertébral concerné un quart de sa structure, ce qui entraîne une déviation du rachis. Parfois, il manque une hémivertèbre.
 Scoliose : déviation d'une courbure dans un plan coronal comme le rachis thoracique avec une concavité latérale droite. Associé à cette courbure, il y a une rotation vertébrale.
 Neuro musculaire : poliomyélite
 Idiopathiques : ce qui n'a pas d'étiologie déterminée dans l'état actuel des connaissances mais parmi elles, les scolioses idiopathiques, les plus fréquentes</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Colonne_vert%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Images récapitulatives</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Colonne vertébrale.
@@ -822,35 +1389,37 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Colonne_vert%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Colonne_vertébrale</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colonne_vert%C3%A9brale</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez tous les vertébrés, sauf chez les poissons les plus primitifs, la notochorde (chorde fibrocellulaire axiale spécifique de l'embranchement des Chordés) est remplacée au cours du développement embryonnaire par une colonne vertébrale[4].
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez tous les vertébrés, sauf chez les poissons les plus primitifs, la notochorde (chorde fibrocellulaire axiale spécifique de l'embranchement des Chordés) est remplacée au cours du développement embryonnaire par une colonne vertébrale.
 La colonne vertébrale chez les poissons osseux correspond à l'arête centrale.
-Les Primates ont une colonne vertébrale modérément incurvée, formée de deux courbures sagittales, l'une cervicale, courte, convexe en avant, l'autre dorso-lombaire, large, convexe en arrière, ce qui explique qu'en station debout le tronc des grands singes penche naturellement en avant et que leur torse est en position instable en avant de leurs hanches. Les hominidés à bipédie obligatoire font exception. Leur bipédie exclusive est marquée, entre autres critères, par la présence de quatre courbures compensatrices (courbure en double S) qui assurent à la fois la verticalité (centre de gravité du corps ramené au niveau de celui de la colonne vertébrale) et la souplesse de la colonne (rôle d'un ressort lors de la marche, la course ou de petits sauts, permettant de mieux amortir les chocs et les tensions)[5] : une courbure cervicale convexe en avant (lordose cervicale donnant l'aspect creusé du cou), une courbure convexe en arrière (la cyphose dorsale ou thoracique donnant la bosse du dos), une courbure lombaire convexe en avant (la lordose lombaire donnant le creux en bas du dos), une courbure sacrococcygienne convexe en arrière (la cyphose sacrale/coccygienne)[6].
+Les Primates ont une colonne vertébrale modérément incurvée, formée de deux courbures sagittales, l'une cervicale, courte, convexe en avant, l'autre dorso-lombaire, large, convexe en arrière, ce qui explique qu'en station debout le tronc des grands singes penche naturellement en avant et que leur torse est en position instable en avant de leurs hanches. Les hominidés à bipédie obligatoire font exception. Leur bipédie exclusive est marquée, entre autres critères, par la présence de quatre courbures compensatrices (courbure en double S) qui assurent à la fois la verticalité (centre de gravité du corps ramené au niveau de celui de la colonne vertébrale) et la souplesse de la colonne (rôle d'un ressort lors de la marche, la course ou de petits sauts, permettant de mieux amortir les chocs et les tensions) : une courbure cervicale convexe en avant (lordose cervicale donnant l'aspect creusé du cou), une courbure convexe en arrière (la cyphose dorsale ou thoracique donnant la bosse du dos), une courbure lombaire convexe en avant (la lordose lombaire donnant le creux en bas du dos), une courbure sacrococcygienne convexe en arrière (la cyphose sacrale/coccygienne).
 </t>
         </is>
       </c>
